--- a/v3/BOM_Final.xlsx
+++ b/v3/BOM_Final.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SMART\v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Personal\Code\SMART\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB5302-A3B6-46BD-8196-73770CECAAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC61BA40-8501-4681-B0DD-1B51677CFEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="v3 BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Additional" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="v3_" localSheetId="0">'v3 BOM'!$A$2:$L$18</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>Qty</t>
   </si>
@@ -435,12 +436,96 @@
   <si>
     <t>Through-Hole</t>
   </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Omron-Electronics/G2RL-1-DC5?qs=4BYd6zd2T8X2bNuRSnGw5A%3D%3D</t>
+  </si>
+  <si>
+    <t>240VAC, 16A, SPDT Relay</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>G2RL-1-DC5</t>
+  </si>
+  <si>
+    <t>196 Rs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Footptint of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G2RL-1-HA-DC5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from mouser</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.mouser.in/ProductDetail/Omron-Electronics/G2RL-1-E-DC5?qs=%2Fha2pyFaduilFmQogeP6%2FfPDoK%2FchgYk13w2kuxzTce3PvXdRYfJiw%3D%3D</t>
+  </si>
+  <si>
+    <t>G2RL-1-E-DC5</t>
+  </si>
+  <si>
+    <t>230 Rs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Footptint of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G2RL-1-E-DC12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from mouser</t>
+    </r>
+  </si>
+  <si>
+    <t>240VAC, 12A, SPDT Relay</t>
+  </si>
+  <si>
+    <t>DON’T USE THIS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +579,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -616,10 +715,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -635,21 +735,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,6 +753,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -677,26 +786,26 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -981,36 +1090,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.88671875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1045,523 +1154,523 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="13">
         <v>113990105</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="13">
         <v>113990105</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>603</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="9" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="11">
         <v>603</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>109</v>
       </c>
       <c r="B22" s="27"/>
-      <c r="C22" s="28">
+      <c r="C22" s="16">
         <f>5+8+4+4+1+4</f>
         <v>26</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="15">
         <f>1+5+1+4+2+1+4+1+4+1</f>
         <v>24</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:11" s="19" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1574,4 +1683,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374DFE4A-82AD-42DF-8BB6-E4F0A808624F}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{4548D005-3999-4595-8A70-D3C8A6ECD567}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{D6D59757-0290-4591-B08F-D760368BD4D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>